--- a/config_aomi/fish_am_yutu_random_3.xlsx
+++ b/config_aomi/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E13"/>
+      <selection activeCell="D2" sqref="D2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1098,10 +1098,10 @@
         <v>71</v>
       </c>
       <c r="D2" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E2" s="11">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>55</v>
@@ -1118,10 +1118,10 @@
         <v>72</v>
       </c>
       <c r="D3" s="11">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E3" s="11">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>56</v>
@@ -1138,10 +1138,10 @@
         <v>73</v>
       </c>
       <c r="D4" s="11">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E4" s="11">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>57</v>
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="D5" s="11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E5" s="11">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1198,10 +1198,10 @@
         <v>75</v>
       </c>
       <c r="D7" s="11">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>52</v>
@@ -1220,36 +1220,33 @@
         <v>74</v>
       </c>
       <c r="D8" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E9" s="11">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1263,10 +1260,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="11">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="E10" s="11">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>52</v>
@@ -1275,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1286,10 +1283,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="11">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="11">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>52</v>
@@ -1309,10 +1306,10 @@
         <v>66</v>
       </c>
       <c r="D12" s="11">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="11">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>52</v>
@@ -1332,10 +1329,10 @@
         <v>66</v>
       </c>
       <c r="D13" s="11">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="E13" s="11">
-        <v>5200</v>
+        <v>4200</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>52</v>
@@ -1344,7 +1341,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_aomi/fish_am_yutu_random_3.xlsx
+++ b/config_aomi/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,15 +322,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,7,8,9,10,11,26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,64,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,64,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1053,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E9"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1199,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1217,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8" s="11">
         <v>50</v>
@@ -1237,7 +1241,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11">
         <v>100</v>
@@ -1815,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1832,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -1849,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -1866,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -1883,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
